--- a/database/industries/siman/sekhouz/product/yearly.xlsx
+++ b/database/industries/siman/sekhouz/product/yearly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="55">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,21 @@
   </si>
   <si>
     <t>مقدار تولید</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1391/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1392/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1393/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1394/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1395/12</t>
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1396/12</t>
@@ -584,16 +599,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I146"/>
+  <dimension ref="B1:N146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -602,8 +617,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -614,8 +634,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -626,8 +651,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -636,8 +666,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -648,8 +683,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -660,8 +700,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -670,8 +715,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -692,8 +742,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -702,126 +767,206 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>2115872</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2440281</v>
+      </c>
+      <c r="G11" s="11">
+        <v>2342242</v>
+      </c>
+      <c r="H11" s="11">
+        <v>2344041</v>
+      </c>
+      <c r="I11" s="11">
+        <v>2186315</v>
+      </c>
+      <c r="J11" s="11">
         <v>2200131</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="11">
+      <c r="K11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="11">
         <v>2329470</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>1977847</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2146860</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1803266</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1673590</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1538198</v>
+      </c>
+      <c r="J12" s="9">
         <v>1520497</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>1353532</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>1338713</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>1696869</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>1743880</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
+        <v>4093719</v>
+      </c>
+      <c r="F14" s="13">
+        <v>4587141</v>
+      </c>
+      <c r="G14" s="13">
+        <v>4145508</v>
+      </c>
+      <c r="H14" s="13">
+        <v>4017631</v>
+      </c>
+      <c r="I14" s="13">
+        <v>3724513</v>
+      </c>
+      <c r="J14" s="13">
         <v>3720628</v>
       </c>
-      <c r="F14" s="13">
+      <c r="K14" s="13">
         <v>1353532</v>
       </c>
-      <c r="G14" s="13">
+      <c r="L14" s="13">
         <v>1338713</v>
       </c>
-      <c r="H14" s="13">
+      <c r="M14" s="13">
         <v>1696869</v>
       </c>
-      <c r="I14" s="13">
+      <c r="N14" s="13">
         <v>4073350</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -830,8 +975,13 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -840,8 +990,13 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -850,10 +1005,15 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -872,8 +1032,23 @@
       <c r="I18" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -882,700 +1057,1140 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="11" t="s">
-        <v>12</v>
+      <c r="E21" s="11">
+        <v>187540</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
-        <v>12</v>
+      <c r="E22" s="9">
+        <v>1982631</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>14</v>
-      </c>
       <c r="D23" s="11"/>
-      <c r="E23" s="11">
+      <c r="E23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="11">
         <v>750997</v>
       </c>
-      <c r="F23" s="11">
+      <c r="K23" s="11">
         <v>207845</v>
       </c>
-      <c r="G23" s="11">
+      <c r="L23" s="11">
         <v>935776</v>
       </c>
-      <c r="H23" s="11">
+      <c r="M23" s="11">
         <v>776312</v>
       </c>
-      <c r="I23" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N23" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="9">
+      <c r="E24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="9">
         <v>299100</v>
       </c>
-      <c r="F24" s="9">
+      <c r="K24" s="9">
         <v>213275</v>
       </c>
-      <c r="G24" s="9">
+      <c r="L24" s="9">
         <v>311994</v>
       </c>
-      <c r="H24" s="9">
+      <c r="M24" s="9">
         <v>281860</v>
       </c>
-      <c r="I24" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N24" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="11">
-        <v>0</v>
-      </c>
-      <c r="G25" s="11">
-        <v>0</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="9">
+      <c r="E26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="9">
         <v>1228436</v>
       </c>
-      <c r="F26" s="9">
+      <c r="K26" s="9">
         <v>1121264</v>
       </c>
-      <c r="G26" s="9">
+      <c r="L26" s="9">
         <v>1025998</v>
       </c>
-      <c r="H26" s="9">
+      <c r="M26" s="9">
         <v>1413839</v>
       </c>
-      <c r="I26" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N26" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F27" s="11">
+        <v>564155</v>
+      </c>
+      <c r="G27" s="11">
+        <v>511586</v>
+      </c>
+      <c r="H27" s="11">
+        <v>528423</v>
+      </c>
+      <c r="I27" s="11">
+        <v>463500</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F28" s="9">
+        <v>70543</v>
+      </c>
+      <c r="G28" s="9">
+        <v>52255</v>
+      </c>
+      <c r="H28" s="9">
+        <v>34444</v>
+      </c>
+      <c r="I28" s="9">
+        <v>678374</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F29" s="11">
+        <v>304646</v>
+      </c>
+      <c r="G29" s="11">
+        <v>52026</v>
+      </c>
+      <c r="H29" s="11">
+        <v>127506</v>
+      </c>
+      <c r="I29" s="11">
+        <v>95502</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="F30" s="9">
+        <v>475278</v>
+      </c>
+      <c r="G30" s="9">
+        <v>454672</v>
+      </c>
+      <c r="H30" s="9">
+        <v>443633</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="F31" s="11">
+        <v>474464</v>
+      </c>
+      <c r="G31" s="11">
+        <v>466854</v>
+      </c>
+      <c r="H31" s="11">
+        <v>263877</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F32" s="9">
+        <v>212697</v>
+      </c>
+      <c r="G32" s="9">
+        <v>460383</v>
+      </c>
+      <c r="H32" s="9">
+        <v>358121</v>
+      </c>
+      <c r="I32" s="9">
+        <v>452419</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="F33" s="11">
+        <v>4982</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F34" s="9">
+        <v>109236</v>
+      </c>
+      <c r="G34" s="9">
+        <v>147261</v>
+      </c>
+      <c r="H34" s="9">
+        <v>124651</v>
+      </c>
+      <c r="I34" s="9">
+        <v>112763</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="F35" s="11">
+        <v>142100</v>
+      </c>
+      <c r="G35" s="11">
+        <v>113147</v>
+      </c>
+      <c r="H35" s="11">
+        <v>51756</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F36" s="9">
+        <v>5093</v>
+      </c>
+      <c r="G36" s="9">
+        <v>369853</v>
+      </c>
+      <c r="H36" s="9">
+        <v>212017</v>
+      </c>
+      <c r="I36" s="9">
+        <v>333317</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F37" s="11">
+        <v>144973</v>
+      </c>
+      <c r="G37" s="11">
+        <v>0</v>
+      </c>
+      <c r="H37" s="11">
+        <v>1290</v>
+      </c>
+      <c r="I37" s="11">
+        <v>10000</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F38" s="9">
+        <v>9270</v>
+      </c>
+      <c r="G38" s="9">
+        <v>0</v>
+      </c>
+      <c r="H38" s="9">
+        <v>104502</v>
+      </c>
+      <c r="I38" s="9">
+        <v>176512</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="G39" s="11">
+        <v>0</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="F40" s="9">
+        <v>0</v>
+      </c>
+      <c r="G40" s="9">
+        <v>1980</v>
+      </c>
+      <c r="H40" s="9">
+        <v>1980</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="F41" s="11">
+        <v>931</v>
+      </c>
+      <c r="G41" s="11">
+        <v>0</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F42" s="9">
+        <v>1155</v>
+      </c>
+      <c r="G42" s="9">
+        <v>789</v>
+      </c>
+      <c r="H42" s="9">
+        <v>74</v>
+      </c>
+      <c r="I42" s="9">
+        <v>1068</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="11">
-        <v>0</v>
-      </c>
-      <c r="G43" s="11">
-        <v>0</v>
-      </c>
-      <c r="H43" s="11">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="11">
+        <v>0</v>
+      </c>
+      <c r="L43" s="11">
+        <v>0</v>
+      </c>
+      <c r="M43" s="11">
+        <v>0</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0</v>
+      </c>
+      <c r="H44" s="9">
+        <v>9973</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D45" s="11"/>
-      <c r="E45" s="11">
+      <c r="E45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="11">
         <v>65264</v>
       </c>
-      <c r="F45" s="11">
+      <c r="K45" s="11">
         <v>198875</v>
       </c>
-      <c r="G45" s="11">
+      <c r="L45" s="11">
         <v>446914</v>
       </c>
-      <c r="H45" s="11">
-        <v>0</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M45" s="11">
+        <v>0</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I46" s="9">
+        <v>20</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I47" s="11">
+        <v>17</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N47" s="11">
         <v>2440578</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13">
+        <v>2170171</v>
+      </c>
+      <c r="F48" s="13">
+        <v>2519523</v>
+      </c>
+      <c r="G48" s="13">
+        <v>2630806</v>
+      </c>
+      <c r="H48" s="13">
+        <v>2262247</v>
+      </c>
+      <c r="I48" s="13">
+        <v>2323475</v>
+      </c>
+      <c r="J48" s="13">
         <v>2343797</v>
       </c>
-      <c r="F48" s="13">
+      <c r="K48" s="13">
         <v>1741259</v>
       </c>
-      <c r="G48" s="13">
+      <c r="L48" s="13">
         <v>2720682</v>
       </c>
-      <c r="H48" s="13">
+      <c r="M48" s="13">
         <v>2472011</v>
       </c>
-      <c r="I48" s="13">
+      <c r="N48" s="13">
         <v>2440578</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1584,8 +2199,13 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1594,8 +2214,13 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1604,10 +2229,15 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -1626,8 +2256,23 @@
       <c r="I52" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1636,702 +2281,1142 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N54" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D55" s="11"/>
-      <c r="E55" s="11" t="s">
-        <v>12</v>
+      <c r="E55" s="11">
+        <v>80204</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N55" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D56" s="9"/>
-      <c r="E56" s="9" t="s">
-        <v>12</v>
+      <c r="E56" s="9">
+        <v>1512809</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N56" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D57" s="11"/>
-      <c r="E57" s="11">
+      <c r="E57" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="11">
         <v>641560</v>
       </c>
-      <c r="F57" s="11">
+      <c r="K57" s="11">
         <v>429479</v>
       </c>
-      <c r="G57" s="11">
+      <c r="L57" s="11">
         <v>1650182</v>
       </c>
-      <c r="H57" s="11">
+      <c r="M57" s="11">
         <v>2837744</v>
       </c>
-      <c r="I57" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N57" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D58" s="9"/>
-      <c r="E58" s="9">
+      <c r="E58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="9">
         <v>394078</v>
       </c>
-      <c r="F58" s="9">
+      <c r="K58" s="9">
         <v>524450</v>
       </c>
-      <c r="G58" s="9">
+      <c r="L58" s="9">
         <v>990399</v>
       </c>
-      <c r="H58" s="9">
+      <c r="M58" s="9">
         <v>1748218</v>
       </c>
-      <c r="I58" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N58" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="11">
-        <v>0</v>
-      </c>
-      <c r="G59" s="11">
-        <v>0</v>
-      </c>
-      <c r="H59" s="11">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" s="11">
+        <v>0</v>
+      </c>
+      <c r="L59" s="11">
+        <v>0</v>
+      </c>
+      <c r="M59" s="11">
+        <v>0</v>
+      </c>
+      <c r="N59" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D60" s="9"/>
-      <c r="E60" s="9">
+      <c r="E60" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" s="9">
         <v>1475865</v>
       </c>
-      <c r="F60" s="9">
+      <c r="K60" s="9">
         <v>1618626</v>
       </c>
-      <c r="G60" s="9">
+      <c r="L60" s="9">
         <v>1950996</v>
       </c>
-      <c r="H60" s="9">
+      <c r="M60" s="9">
         <v>3497786</v>
       </c>
-      <c r="I60" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N60" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F61" s="11">
+        <v>461041</v>
+      </c>
+      <c r="G61" s="11">
+        <v>499733</v>
+      </c>
+      <c r="H61" s="11">
+        <v>499390</v>
+      </c>
+      <c r="I61" s="11">
+        <v>455225</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N61" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F62" s="9">
+        <v>69392</v>
+      </c>
+      <c r="G62" s="9">
+        <v>58236</v>
+      </c>
+      <c r="H62" s="9">
+        <v>36273</v>
+      </c>
+      <c r="I62" s="9">
+        <v>751959</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N62" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F63" s="11">
+        <v>316554</v>
+      </c>
+      <c r="G63" s="11">
+        <v>58577</v>
+      </c>
+      <c r="H63" s="11">
+        <v>139241</v>
+      </c>
+      <c r="I63" s="11">
+        <v>118048</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L63" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M63" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N63" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="F64" s="9">
+        <v>469612</v>
+      </c>
+      <c r="G64" s="9">
+        <v>521730</v>
+      </c>
+      <c r="H64" s="9">
+        <v>471466</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="F65" s="11">
+        <v>623033</v>
+      </c>
+      <c r="G65" s="11">
+        <v>634652</v>
+      </c>
+      <c r="H65" s="11">
+        <v>293263</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N65" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F66" s="9">
+        <v>83729</v>
+      </c>
+      <c r="G66" s="9">
+        <v>370473</v>
+      </c>
+      <c r="H66" s="9">
+        <v>352125</v>
+      </c>
+      <c r="I66" s="9">
+        <v>347538</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="F67" s="11">
+        <v>3760</v>
+      </c>
+      <c r="G67" s="11">
+        <v>0</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N67" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F68" s="9">
+        <v>91999</v>
+      </c>
+      <c r="G68" s="9">
+        <v>147199</v>
+      </c>
+      <c r="H68" s="9">
+        <v>119724</v>
+      </c>
+      <c r="I68" s="9">
+        <v>110983</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N68" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="F69" s="11">
+        <v>183006</v>
+      </c>
+      <c r="G69" s="11">
+        <v>159483</v>
+      </c>
+      <c r="H69" s="11">
+        <v>61164</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F70" s="9">
+        <v>4482</v>
+      </c>
+      <c r="G70" s="9">
+        <v>316546</v>
+      </c>
+      <c r="H70" s="9">
+        <v>180359</v>
+      </c>
+      <c r="I70" s="9">
+        <v>253852</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N70" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I71" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F71" s="11">
+        <v>56626</v>
+      </c>
+      <c r="G71" s="11">
+        <v>0</v>
+      </c>
+      <c r="H71" s="11">
+        <v>885</v>
+      </c>
+      <c r="I71" s="11">
+        <v>5780</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F72" s="9">
+        <v>8795</v>
+      </c>
+      <c r="G72" s="9">
+        <v>0</v>
+      </c>
+      <c r="H72" s="9">
+        <v>137945</v>
+      </c>
+      <c r="I72" s="9">
+        <v>213970</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M72" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N72" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="G73" s="11">
+        <v>0</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="F74" s="9">
+        <v>0</v>
+      </c>
+      <c r="G74" s="9">
+        <v>1980</v>
+      </c>
+      <c r="H74" s="9">
+        <v>2745</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N74" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="F75" s="11">
+        <v>928</v>
+      </c>
+      <c r="G75" s="11">
+        <v>0</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M75" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N75" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I76" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F76" s="9">
+        <v>949</v>
+      </c>
+      <c r="G76" s="9">
+        <v>1036</v>
+      </c>
+      <c r="H76" s="9">
+        <v>74</v>
+      </c>
+      <c r="I76" s="9">
+        <v>894</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N76" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="11">
-        <v>0</v>
-      </c>
-      <c r="G77" s="11">
-        <v>0</v>
-      </c>
-      <c r="H77" s="11">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" s="11">
+        <v>0</v>
+      </c>
+      <c r="L77" s="11">
+        <v>0</v>
+      </c>
+      <c r="M77" s="11">
+        <v>0</v>
+      </c>
+      <c r="N77" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="G78" s="9">
+        <v>0</v>
+      </c>
+      <c r="H78" s="9">
+        <v>6782</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N78" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D79" s="11"/>
-      <c r="E79" s="11">
+      <c r="E79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" s="11">
         <v>24630</v>
       </c>
-      <c r="F79" s="11">
+      <c r="K79" s="11">
         <v>239477</v>
       </c>
-      <c r="G79" s="11">
+      <c r="L79" s="11">
         <v>586378</v>
       </c>
-      <c r="H79" s="11">
-        <v>0</v>
-      </c>
-      <c r="I79" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M79" s="11">
+        <v>0</v>
+      </c>
+      <c r="N79" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I80" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I80" s="9">
+        <v>26</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L80" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M80" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N80" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I81" s="11">
+        <v>17</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N81" s="11">
         <v>12824117</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
       <c r="E82" s="13">
+        <v>1593013</v>
+      </c>
+      <c r="F82" s="13">
+        <v>2373906</v>
+      </c>
+      <c r="G82" s="13">
+        <v>2769645</v>
+      </c>
+      <c r="H82" s="13">
+        <v>2301436</v>
+      </c>
+      <c r="I82" s="13">
+        <v>2258275</v>
+      </c>
+      <c r="J82" s="13">
         <v>2536133</v>
       </c>
-      <c r="F82" s="13">
+      <c r="K82" s="13">
         <v>2812032</v>
       </c>
-      <c r="G82" s="13">
+      <c r="L82" s="13">
         <v>5177955</v>
       </c>
-      <c r="H82" s="13">
+      <c r="M82" s="13">
         <v>8083748</v>
       </c>
-      <c r="I82" s="13">
+      <c r="N82" s="13">
         <v>12824117</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2340,8 +3425,13 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2350,8 +3440,13 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2360,10 +3455,15 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -2382,8 +3482,23 @@
       <c r="I86" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M86" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N86" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2392,656 +3507,1066 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I88" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L88" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M88" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N88" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D89" s="11"/>
-      <c r="E89" s="11" t="s">
-        <v>12</v>
+      <c r="E89" s="11">
+        <v>427663</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I89" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I89" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K89" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L89" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M89" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N89" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D90" s="9"/>
-      <c r="E90" s="9" t="s">
-        <v>12</v>
+      <c r="E90" s="9">
+        <v>763031</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I90" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K90" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L90" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M90" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N90" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D91" s="11"/>
-      <c r="E91" s="11">
+      <c r="E91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91" s="11">
         <v>854278</v>
       </c>
-      <c r="F91" s="11">
+      <c r="K91" s="11">
         <v>2066343</v>
       </c>
-      <c r="G91" s="11">
+      <c r="L91" s="11">
         <v>1763437</v>
       </c>
-      <c r="H91" s="11">
+      <c r="M91" s="11">
         <v>3655417</v>
       </c>
-      <c r="I91" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N91" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D92" s="9"/>
-      <c r="E92" s="9">
+      <c r="E92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92" s="9">
         <v>1317546</v>
       </c>
-      <c r="F92" s="9">
+      <c r="K92" s="9">
         <v>2459032</v>
       </c>
-      <c r="G92" s="9">
+      <c r="L92" s="9">
         <v>3174417</v>
       </c>
-      <c r="H92" s="9">
+      <c r="M92" s="9">
         <v>6202434</v>
       </c>
-      <c r="I92" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N92" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="11">
-        <v>0</v>
-      </c>
-      <c r="G93" s="11">
-        <v>0</v>
-      </c>
-      <c r="H93" s="11">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J93" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K93" s="11">
+        <v>0</v>
+      </c>
+      <c r="L93" s="11">
+        <v>0</v>
+      </c>
+      <c r="M93" s="11">
+        <v>0</v>
+      </c>
+      <c r="N93" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D94" s="9"/>
-      <c r="E94" s="9">
+      <c r="E94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" s="9">
         <v>1201418</v>
       </c>
-      <c r="F94" s="9">
+      <c r="K94" s="9">
         <v>1443573</v>
       </c>
-      <c r="G94" s="9">
+      <c r="L94" s="9">
         <v>1901559</v>
       </c>
-      <c r="H94" s="9">
+      <c r="M94" s="9">
         <v>2473963</v>
       </c>
-      <c r="I94" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N94" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H95" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I95" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F95" s="11">
+        <v>817224</v>
+      </c>
+      <c r="G95" s="11">
+        <v>976831</v>
+      </c>
+      <c r="H95" s="11">
+        <v>945057</v>
+      </c>
+      <c r="I95" s="11">
+        <v>982147</v>
+      </c>
+      <c r="J95" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K95" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L95" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M95" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N95" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H96" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I96" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F96" s="9">
+        <v>983684</v>
+      </c>
+      <c r="G96" s="9">
+        <v>1114458</v>
+      </c>
+      <c r="H96" s="9">
+        <v>1053101</v>
+      </c>
+      <c r="I96" s="9">
+        <v>1108473</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L96" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M96" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N96" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H97" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I97" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F97" s="11">
+        <v>1039088</v>
+      </c>
+      <c r="G97" s="11">
+        <v>1125918</v>
+      </c>
+      <c r="H97" s="11">
+        <v>1092035</v>
+      </c>
+      <c r="I97" s="11">
+        <v>1236079</v>
+      </c>
+      <c r="J97" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K97" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L97" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M97" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N97" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="F98" s="9">
+        <v>988079</v>
+      </c>
+      <c r="G98" s="9">
+        <v>1147487</v>
+      </c>
+      <c r="H98" s="9">
+        <v>1062739</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K98" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L98" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M98" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N98" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H99" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="F99" s="11">
+        <v>1313130</v>
+      </c>
+      <c r="G99" s="11">
+        <v>1359423</v>
+      </c>
+      <c r="H99" s="11">
+        <v>1111362</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J99" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K99" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L99" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M99" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N99" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H100" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I100" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F100" s="9">
+        <v>393654</v>
+      </c>
+      <c r="G100" s="9">
+        <v>804706</v>
+      </c>
+      <c r="H100" s="9">
+        <v>983257</v>
+      </c>
+      <c r="I100" s="9">
+        <v>768177</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K100" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L100" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M100" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N100" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="F101" s="11">
+        <v>754717</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J101" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K101" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L101" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M101" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N101" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H102" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I102" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F102" s="9">
+        <v>842204</v>
+      </c>
+      <c r="G102" s="9">
+        <v>999579</v>
+      </c>
+      <c r="H102" s="9">
+        <v>960474</v>
+      </c>
+      <c r="I102" s="9">
+        <v>984215</v>
+      </c>
+      <c r="J102" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K102" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L102" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M102" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N102" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H103" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="F103" s="11">
+        <v>1287868</v>
+      </c>
+      <c r="G103" s="11">
+        <v>1409520</v>
+      </c>
+      <c r="H103" s="11">
+        <v>1181776</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J103" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K103" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L103" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M103" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N103" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H104" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I104" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F104" s="9">
+        <v>880031</v>
+      </c>
+      <c r="G104" s="9">
+        <v>855870</v>
+      </c>
+      <c r="H104" s="9">
+        <v>850682</v>
+      </c>
+      <c r="I104" s="9">
+        <v>761593</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K104" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L104" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M104" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N104" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="F105" s="11">
+        <v>390597</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H105" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I105" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="H105" s="11">
+        <v>686047</v>
+      </c>
+      <c r="I105" s="11">
+        <v>578000</v>
+      </c>
+      <c r="J105" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K105" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L105" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M105" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N105" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="F106" s="9">
+        <v>948759</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H106" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I106" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="H106" s="9">
+        <v>1320023</v>
+      </c>
+      <c r="I106" s="9">
+        <v>1212212</v>
+      </c>
+      <c r="J106" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K106" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L106" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M106" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N106" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H107" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="G107" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="H107" s="11">
+        <v>1386364</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J107" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K107" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L107" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M107" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N107" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="F108" s="9">
+        <v>996778</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J108" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K108" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L108" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M108" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N108" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H109" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I109" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F109" s="11">
+        <v>821645</v>
+      </c>
+      <c r="G109" s="11">
+        <v>1313055</v>
+      </c>
+      <c r="H109" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="I109" s="11">
+        <v>837079</v>
+      </c>
+      <c r="J109" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K109" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L109" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M109" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N109" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" s="9">
-        <v>0</v>
-      </c>
-      <c r="G110" s="9">
-        <v>0</v>
-      </c>
-      <c r="H110" s="9">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J110" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K110" s="9">
+        <v>0</v>
+      </c>
+      <c r="L110" s="9">
+        <v>0</v>
+      </c>
+      <c r="M110" s="9">
+        <v>0</v>
+      </c>
+      <c r="N110" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H111" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="H111" s="11">
+        <v>680036</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J111" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K111" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L111" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M111" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N111" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C112" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H112" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I112" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J112" s="9">
+        <v>377390</v>
+      </c>
+      <c r="K112" s="9">
+        <v>1204158</v>
+      </c>
+      <c r="L112" s="9">
+        <v>1312060</v>
+      </c>
+      <c r="M112" s="9">
+        <v>0</v>
+      </c>
+      <c r="N112" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B113" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9">
-        <v>377390</v>
-      </c>
-      <c r="F112" s="9">
-        <v>1204158</v>
-      </c>
-      <c r="G112" s="9">
-        <v>1312060</v>
-      </c>
-      <c r="H112" s="9">
-        <v>0</v>
-      </c>
-      <c r="I112" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="C113" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I113" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I113" s="11">
+        <v>1300000</v>
+      </c>
+      <c r="J113" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K113" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L113" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M113" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N113" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I114" s="9">
+        <v>17</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J114" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K114" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L114" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M114" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N114" s="9">
         <v>5254541</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -3050,8 +4575,13 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3060,8 +4590,13 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -3070,10 +4605,15 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
-    </row>
-    <row r="118" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+    </row>
+    <row r="118" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B118" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -3092,8 +4632,23 @@
       <c r="I118" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J118" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K118" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L118" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M118" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N118" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -3102,250 +4657,405 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I120" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J120" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K120" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L120" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M120" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N120" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I121" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I121" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J121" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K121" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L121" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M121" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N121" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I122" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I122" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J122" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K122" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L122" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M122" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N122" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123" s="11">
+        <v>17</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G123" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H123" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I123" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J123" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K123" s="11">
         <v>-144635</v>
       </c>
-      <c r="G123" s="11">
+      <c r="L123" s="11">
         <v>-690454</v>
       </c>
-      <c r="H123" s="11">
+      <c r="M123" s="11">
         <v>-964423</v>
       </c>
-      <c r="I123" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N123" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" s="9">
+        <v>17</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I124" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J124" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K124" s="9">
         <v>-165656</v>
       </c>
-      <c r="G124" s="9">
+      <c r="L124" s="9">
         <v>-482852</v>
       </c>
-      <c r="H124" s="9">
+      <c r="M124" s="9">
         <v>-519305</v>
       </c>
-      <c r="I124" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N124" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F125" s="11">
-        <v>0</v>
-      </c>
-      <c r="G125" s="11">
-        <v>0</v>
-      </c>
-      <c r="H125" s="11">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G125" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H125" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J125" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K125" s="11">
+        <v>0</v>
+      </c>
+      <c r="L125" s="11">
+        <v>0</v>
+      </c>
+      <c r="M125" s="11">
+        <v>0</v>
+      </c>
+      <c r="N125" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126" s="9">
+        <v>17</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G126" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H126" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I126" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J126" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K126" s="9">
         <v>-1229132</v>
       </c>
-      <c r="G126" s="9">
+      <c r="L126" s="9">
         <v>-1587868</v>
       </c>
-      <c r="H126" s="9">
+      <c r="M126" s="9">
         <v>-2306102</v>
       </c>
-      <c r="I126" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N126" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D127" s="11"/>
       <c r="E127" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F127" s="11">
-        <v>0</v>
-      </c>
-      <c r="G127" s="11">
-        <v>0</v>
-      </c>
-      <c r="H127" s="11">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F127" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G127" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H127" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I127" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J127" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K127" s="11">
+        <v>0</v>
+      </c>
+      <c r="L127" s="11">
+        <v>0</v>
+      </c>
+      <c r="M127" s="11">
+        <v>0</v>
+      </c>
+      <c r="N127" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D128" s="9"/>
       <c r="E128" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F128" s="9">
+        <v>17</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H128" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I128" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J128" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K128" s="9">
         <v>-130198</v>
       </c>
-      <c r="G128" s="9">
+      <c r="L128" s="9">
         <v>-323964</v>
       </c>
-      <c r="H128" s="9">
-        <v>0</v>
-      </c>
-      <c r="I128" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M128" s="9">
+        <v>0</v>
+      </c>
+      <c r="N128" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D129" s="11"/>
       <c r="E129" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I129" s="11">
+        <v>17</v>
+      </c>
+      <c r="I129" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J129" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K129" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L129" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M129" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N129" s="11">
         <v>-6208752</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C130" s="13"/>
       <c r="D130" s="13"/>
@@ -3353,19 +5063,34 @@
         <v>0</v>
       </c>
       <c r="F130" s="13">
+        <v>0</v>
+      </c>
+      <c r="G130" s="13">
+        <v>0</v>
+      </c>
+      <c r="H130" s="13">
+        <v>0</v>
+      </c>
+      <c r="I130" s="13">
+        <v>0</v>
+      </c>
+      <c r="J130" s="13">
+        <v>0</v>
+      </c>
+      <c r="K130" s="13">
         <v>-1669621</v>
       </c>
-      <c r="G130" s="13">
+      <c r="L130" s="13">
         <v>-3085138</v>
       </c>
-      <c r="H130" s="13">
+      <c r="M130" s="13">
         <v>-3789830</v>
       </c>
-      <c r="I130" s="13">
+      <c r="N130" s="13">
         <v>-6208752</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3374,8 +5099,13 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3384,8 +5114,13 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3394,10 +5129,15 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -3416,8 +5156,23 @@
       <c r="I134" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J134" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K134" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L134" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M134" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N134" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -3426,250 +5181,405 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I136" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I136" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J136" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K136" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L136" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M136" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N136" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D137" s="11"/>
       <c r="E137" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I137" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I137" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J137" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K137" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L137" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M137" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N137" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I138" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I138" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J138" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K138" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L138" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M138" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N138" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D139" s="11"/>
       <c r="E139" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F139" s="11">
+        <v>17</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G139" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H139" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I139" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J139" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K139" s="11">
         <v>284844</v>
       </c>
-      <c r="G139" s="11">
+      <c r="L139" s="11">
         <v>959728</v>
       </c>
-      <c r="H139" s="11">
+      <c r="M139" s="11">
         <v>1873321</v>
       </c>
-      <c r="I139" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N139" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F140" s="9">
+        <v>17</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I140" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K140" s="9">
         <v>358794</v>
       </c>
-      <c r="G140" s="9">
+      <c r="L140" s="9">
         <v>507547</v>
       </c>
-      <c r="H140" s="9">
+      <c r="M140" s="9">
         <v>1228913</v>
       </c>
-      <c r="I140" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N140" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G141" s="11">
-        <v>0</v>
-      </c>
-      <c r="H141" s="11">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H141" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J141" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K141" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L141" s="11">
+        <v>0</v>
+      </c>
+      <c r="M141" s="11">
+        <v>0</v>
+      </c>
+      <c r="N141" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D142" s="9"/>
       <c r="E142" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F142" s="9">
+        <v>17</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H142" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I142" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J142" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K142" s="9">
         <v>389494</v>
       </c>
-      <c r="G142" s="9">
+      <c r="L142" s="9">
         <v>363128</v>
       </c>
-      <c r="H142" s="9">
+      <c r="M142" s="9">
         <v>1191684</v>
       </c>
-      <c r="I142" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N142" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D143" s="11"/>
       <c r="E143" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G143" s="11">
-        <v>0</v>
-      </c>
-      <c r="H143" s="11">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H143" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I143" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J143" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K143" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L143" s="11">
+        <v>0</v>
+      </c>
+      <c r="M143" s="11">
+        <v>0</v>
+      </c>
+      <c r="N143" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D144" s="9"/>
       <c r="E144" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F144" s="9">
+        <v>17</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I144" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J144" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K144" s="9">
         <v>109279</v>
       </c>
-      <c r="G144" s="9">
+      <c r="L144" s="9">
         <v>262414</v>
       </c>
-      <c r="H144" s="9">
-        <v>0</v>
-      </c>
-      <c r="I144" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M144" s="9">
+        <v>0</v>
+      </c>
+      <c r="N144" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D145" s="11"/>
       <c r="E145" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H145" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I145" s="11">
+        <v>17</v>
+      </c>
+      <c r="I145" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J145" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K145" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L145" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M145" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N145" s="11">
         <v>6615365</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C146" s="13"/>
       <c r="D146" s="13"/>
@@ -3677,15 +5587,30 @@
         <v>0</v>
       </c>
       <c r="F146" s="13">
+        <v>0</v>
+      </c>
+      <c r="G146" s="13">
+        <v>0</v>
+      </c>
+      <c r="H146" s="13">
+        <v>0</v>
+      </c>
+      <c r="I146" s="13">
+        <v>0</v>
+      </c>
+      <c r="J146" s="13">
+        <v>0</v>
+      </c>
+      <c r="K146" s="13">
         <v>1142411</v>
       </c>
-      <c r="G146" s="13">
+      <c r="L146" s="13">
         <v>2092817</v>
       </c>
-      <c r="H146" s="13">
+      <c r="M146" s="13">
         <v>4293918</v>
       </c>
-      <c r="I146" s="13">
+      <c r="N146" s="13">
         <v>6615365</v>
       </c>
     </row>

--- a/database/industries/siman/sekhouz/product/yearly.xlsx
+++ b/database/industries/siman/sekhouz/product/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\siman\sekhouz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B1718B-38BB-4427-B544-63A16173AB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -189,7 +190,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -353,7 +354,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -365,7 +366,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -412,6 +413,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -447,6 +465,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -598,17 +633,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -623,7 +658,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -640,7 +675,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -657,7 +692,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -672,7 +707,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -689,7 +724,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -706,7 +741,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -721,7 +756,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -758,7 +793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -773,7 +808,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -812,7 +847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -851,7 +886,7 @@
         <v>2329470</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
@@ -890,7 +925,7 @@
         <v>1743880</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>21</v>
       </c>
@@ -929,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>22</v>
       </c>
@@ -966,7 +1001,7 @@
         <v>4073350</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -981,7 +1016,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -996,7 +1031,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1011,7 +1046,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>23</v>
       </c>
@@ -1048,7 +1083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1063,7 +1098,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>15</v>
       </c>
@@ -1102,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>18</v>
       </c>
@@ -1141,7 +1176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>20</v>
       </c>
@@ -1180,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>24</v>
       </c>
@@ -1219,7 +1254,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>25</v>
       </c>
@@ -1258,7 +1293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>26</v>
       </c>
@@ -1297,7 +1332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>27</v>
       </c>
@@ -1336,7 +1371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>28</v>
       </c>
@@ -1375,7 +1410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>29</v>
       </c>
@@ -1414,7 +1449,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>30</v>
       </c>
@@ -1453,7 +1488,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>31</v>
       </c>
@@ -1492,7 +1527,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>32</v>
       </c>
@@ -1531,7 +1566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>33</v>
       </c>
@@ -1570,7 +1605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>34</v>
       </c>
@@ -1609,7 +1644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>35</v>
       </c>
@@ -1648,7 +1683,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>36</v>
       </c>
@@ -1687,7 +1722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>37</v>
       </c>
@@ -1726,7 +1761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>38</v>
       </c>
@@ -1765,7 +1800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>39</v>
       </c>
@@ -1804,7 +1839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>40</v>
       </c>
@@ -1843,7 +1878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>41</v>
       </c>
@@ -1882,7 +1917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>42</v>
       </c>
@@ -1921,7 +1956,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>43</v>
       </c>
@@ -1960,7 +1995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>44</v>
       </c>
@@ -1997,7 +2032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>45</v>
       </c>
@@ -2036,7 +2071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>46</v>
       </c>
@@ -2075,7 +2110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>47</v>
       </c>
@@ -2114,7 +2149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>21</v>
       </c>
@@ -2153,7 +2188,7 @@
         <v>2440578</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
         <v>22</v>
       </c>
@@ -2190,7 +2225,7 @@
         <v>2440578</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2205,7 +2240,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2220,7 +2255,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2235,7 +2270,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>48</v>
       </c>
@@ -2272,7 +2307,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2287,7 +2322,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>15</v>
       </c>
@@ -2326,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>18</v>
       </c>
@@ -2365,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>20</v>
       </c>
@@ -2404,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>24</v>
       </c>
@@ -2443,7 +2478,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>25</v>
       </c>
@@ -2482,7 +2517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>26</v>
       </c>
@@ -2521,7 +2556,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>27</v>
       </c>
@@ -2560,7 +2595,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>28</v>
       </c>
@@ -2599,7 +2634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>29</v>
       </c>
@@ -2638,7 +2673,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>30</v>
       </c>
@@ -2677,7 +2712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>31</v>
       </c>
@@ -2716,7 +2751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>32</v>
       </c>
@@ -2755,7 +2790,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>33</v>
       </c>
@@ -2794,7 +2829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>34</v>
       </c>
@@ -2833,7 +2868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>35</v>
       </c>
@@ -2872,7 +2907,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>36</v>
       </c>
@@ -2911,7 +2946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>37</v>
       </c>
@@ -2950,7 +2985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>38</v>
       </c>
@@ -2989,7 +3024,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>39</v>
       </c>
@@ -3028,7 +3063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>40</v>
       </c>
@@ -3067,7 +3102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>41</v>
       </c>
@@ -3106,7 +3141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>42</v>
       </c>
@@ -3145,7 +3180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>43</v>
       </c>
@@ -3184,7 +3219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>44</v>
       </c>
@@ -3223,7 +3258,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>45</v>
       </c>
@@ -3262,7 +3297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>46</v>
       </c>
@@ -3301,7 +3336,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>47</v>
       </c>
@@ -3340,7 +3375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>21</v>
       </c>
@@ -3379,7 +3414,7 @@
         <v>12824117</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="12" t="s">
         <v>22</v>
       </c>
@@ -3416,7 +3451,7 @@
         <v>12824117</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3431,7 +3466,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3446,7 +3481,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3461,7 +3496,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B86" s="7" t="s">
         <v>50</v>
       </c>
@@ -3498,7 +3533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3513,7 +3548,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>15</v>
       </c>
@@ -3552,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>18</v>
       </c>
@@ -3591,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>20</v>
       </c>
@@ -3630,7 +3665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>24</v>
       </c>
@@ -3669,7 +3704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>25</v>
       </c>
@@ -3708,7 +3743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>26</v>
       </c>
@@ -3747,7 +3782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>27</v>
       </c>
@@ -3786,7 +3821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>28</v>
       </c>
@@ -3825,7 +3860,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>29</v>
       </c>
@@ -3864,7 +3899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>30</v>
       </c>
@@ -3903,7 +3938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>31</v>
       </c>
@@ -3942,7 +3977,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>32</v>
       </c>
@@ -3981,7 +4016,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>33</v>
       </c>
@@ -4020,7 +4055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>34</v>
       </c>
@@ -4059,7 +4094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>35</v>
       </c>
@@ -4098,7 +4133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>36</v>
       </c>
@@ -4137,7 +4172,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>37</v>
       </c>
@@ -4176,7 +4211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>38</v>
       </c>
@@ -4215,7 +4250,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>39</v>
       </c>
@@ -4254,7 +4289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>41</v>
       </c>
@@ -4293,7 +4328,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>42</v>
       </c>
@@ -4332,7 +4367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>43</v>
       </c>
@@ -4371,7 +4406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>44</v>
       </c>
@@ -4410,7 +4445,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>45</v>
       </c>
@@ -4449,7 +4484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
         <v>46</v>
       </c>
@@ -4488,7 +4523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>47</v>
       </c>
@@ -4527,7 +4562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>21</v>
       </c>
@@ -4566,7 +4601,7 @@
         <v>5254541</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4581,7 +4616,7 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4596,7 +4631,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4611,7 +4646,7 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
         <v>53</v>
       </c>
@@ -4648,7 +4683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4663,7 +4698,7 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>15</v>
       </c>
@@ -4702,7 +4737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>18</v>
       </c>
@@ -4741,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>20</v>
       </c>
@@ -4780,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>24</v>
       </c>
@@ -4819,7 +4854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>25</v>
       </c>
@@ -4858,7 +4893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>26</v>
       </c>
@@ -4897,7 +4932,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>27</v>
       </c>
@@ -4936,7 +4971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>44</v>
       </c>
@@ -4975,7 +5010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
         <v>46</v>
       </c>
@@ -5014,7 +5049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>21</v>
       </c>
@@ -5053,7 +5088,7 @@
         <v>-6208752</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="12" t="s">
         <v>22</v>
       </c>
@@ -5090,7 +5125,7 @@
         <v>-6208752</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -5105,7 +5140,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -5120,7 +5155,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -5135,7 +5170,7 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B134" s="7" t="s">
         <v>54</v>
       </c>
@@ -5172,7 +5207,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -5187,7 +5222,7 @@
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
         <v>15</v>
       </c>
@@ -5226,7 +5261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>18</v>
       </c>
@@ -5265,7 +5300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="8" t="s">
         <v>20</v>
       </c>
@@ -5304,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>24</v>
       </c>
@@ -5343,7 +5378,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="8" t="s">
         <v>25</v>
       </c>
@@ -5382,7 +5417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="10" t="s">
         <v>26</v>
       </c>
@@ -5421,7 +5456,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="8" t="s">
         <v>27</v>
       </c>
@@ -5460,7 +5495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="10" t="s">
         <v>44</v>
       </c>
@@ -5499,7 +5534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
         <v>46</v>
       </c>
@@ -5538,7 +5573,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
         <v>21</v>
       </c>
@@ -5577,7 +5612,7 @@
         <v>6615365</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="12" t="s">
         <v>22</v>
       </c>

--- a/database/industries/siman/sekhouz/product/yearly.xlsx
+++ b/database/industries/siman/sekhouz/product/yearly.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhouz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\siman\sekhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -586,7 +586,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -902,7 +904,7 @@
         <v>776312</v>
       </c>
       <c r="I20" s="9">
-        <v>0</v>
+        <v>780984.96</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -926,7 +928,7 @@
         <v>1695699</v>
       </c>
       <c r="I21" s="11">
-        <v>0</v>
+        <v>1659593.04</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -1522,7 +1524,7 @@
         <v>12</v>
       </c>
       <c r="I46" s="9">
-        <v>2440578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
@@ -1630,7 +1632,7 @@
         <v>2837744</v>
       </c>
       <c r="I53" s="9">
-        <v>0</v>
+        <v>4103717.4399999995</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -1654,7 +1656,7 @@
         <v>5246004</v>
       </c>
       <c r="I54" s="11">
-        <v>0</v>
+        <v>8720399.5600000005</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
@@ -2254,7 +2256,7 @@
         <v>12</v>
       </c>
       <c r="I79" s="9">
-        <v>12824117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">

--- a/database/industries/siman/sekhouz/product/yearly.xlsx
+++ b/database/industries/siman/sekhouz/product/yearly.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\siman\sekhouz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7DC591-4778-49A6-9881-1D85735BF29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -168,7 +169,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -338,7 +339,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -350,7 +351,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -397,6 +398,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -432,6 +450,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -583,12 +618,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -904,7 +937,7 @@
         <v>776312</v>
       </c>
       <c r="I20" s="9">
-        <v>780984.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -928,7 +961,7 @@
         <v>1695699</v>
       </c>
       <c r="I21" s="11">
-        <v>1659593.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -1524,7 +1557,7 @@
         <v>12</v>
       </c>
       <c r="I46" s="9">
-        <v>0</v>
+        <v>2440578</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
@@ -1632,7 +1665,7 @@
         <v>2837744</v>
       </c>
       <c r="I53" s="9">
-        <v>4103717.4399999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -1656,7 +1689,7 @@
         <v>5246004</v>
       </c>
       <c r="I54" s="11">
-        <v>8720399.5600000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
@@ -2256,7 +2289,7 @@
         <v>12</v>
       </c>
       <c r="I79" s="9">
-        <v>0</v>
+        <v>12824117</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">

--- a/database/industries/siman/sekhouz/product/yearly.xlsx
+++ b/database/industries/siman/sekhouz/product/yearly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhouz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\siman\sekhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7DC591-4778-49A6-9881-1D85735BF29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="45">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -52,9 +51,6 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
-    <t>کلینکر</t>
-  </si>
-  <si>
     <t>تن</t>
   </si>
   <si>
@@ -67,18 +63,12 @@
     <t>سایر / تخفیفات</t>
   </si>
   <si>
-    <t>سیمان وکلینکر</t>
-  </si>
-  <si>
     <t>جمع</t>
   </si>
   <si>
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>کلینکر صادراتی</t>
-  </si>
-  <si>
     <t>سیمان صادراتی</t>
   </si>
   <si>
@@ -103,24 +93,12 @@
     <t>سیمان 5پاکتی -صادراتی</t>
   </si>
   <si>
-    <t>کلینکر2-صادراتی</t>
-  </si>
-  <si>
-    <t>کلینکرتیپ 5</t>
-  </si>
-  <si>
     <t>سیمان تیپ 5-فله</t>
   </si>
   <si>
     <t>سیمان 1پاکتی -صادراتی</t>
   </si>
   <si>
-    <t>کلینکر5-صادراتی</t>
-  </si>
-  <si>
-    <t>کلینکر تیپ 2</t>
-  </si>
-  <si>
     <t>سیمان 1فله -صادراتی</t>
   </si>
   <si>
@@ -136,12 +114,6 @@
     <t>سیمان تیپ 1-فله</t>
   </si>
   <si>
-    <t>کلینکر 1-صادراتی</t>
-  </si>
-  <si>
-    <t>کلینکر داخلی</t>
-  </si>
-  <si>
     <t>سیمان 2پاکتی -صادراتی</t>
   </si>
   <si>
@@ -164,12 +136,30 @@
   </si>
   <si>
     <t>سود ناخالص</t>
+  </si>
+  <si>
+    <t>سیمان وسیمان</t>
+  </si>
+  <si>
+    <t>سیمان2-صادراتی</t>
+  </si>
+  <si>
+    <t>سیمانتیپ 5</t>
+  </si>
+  <si>
+    <t>سیمان5-صادراتی</t>
+  </si>
+  <si>
+    <t>سیمان تیپ 2</t>
+  </si>
+  <si>
+    <t>سیمان 1-صادراتی</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -618,10 +608,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -740,23 +732,23 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
         <v>2200131</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I10" s="9">
         <v>2329470</v>
@@ -764,10 +756,10 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
@@ -788,21 +780,21 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" s="9">
         <v>0</v>
@@ -810,23 +802,23 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" s="11">
         <v>0</v>
@@ -834,7 +826,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -886,7 +878,7 @@
     </row>
     <row r="18" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -918,14 +910,14 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="9">
         <v>406720</v>
@@ -942,14 +934,14 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="11">
         <v>1334539</v>
@@ -966,60 +958,60 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
         <v>750997</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11">
         <v>299100</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" s="9">
         <v>0</v>
@@ -1031,425 +1023,425 @@
         <v>0</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11">
         <v>1228436</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F42" s="9">
         <v>0</v>
@@ -1466,95 +1458,95 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
         <v>65264</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I46" s="9">
         <v>2440578</v>
@@ -1562,7 +1554,7 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -1614,7 +1606,7 @@
     </row>
     <row r="51" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -1646,14 +1638,14 @@
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F53" s="9">
         <v>668956</v>
@@ -1670,14 +1662,14 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F54" s="11">
         <v>2143076</v>
@@ -1694,62 +1686,62 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
         <v>641560</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
         <v>394078</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F57" s="9">
         <v>0</v>
@@ -1761,427 +1753,427 @@
         <v>0</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
         <v>1475865</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F75" s="9">
         <v>0</v>
@@ -2198,95 +2190,95 @@
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
         <v>24630</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I79" s="9">
         <v>12824117</v>
@@ -2294,7 +2286,7 @@
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
@@ -2346,7 +2338,7 @@
     </row>
     <row r="84" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -2378,14 +2370,14 @@
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F86" s="9">
         <v>1644758</v>
@@ -2402,14 +2394,14 @@
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F87" s="11">
         <v>1605855</v>
@@ -2426,62 +2418,62 @@
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9">
         <v>854278</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11">
         <v>1317546</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F90" s="9">
         <v>0</v>
@@ -2493,403 +2485,403 @@
         <v>0</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
         <v>1201418</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F107" s="11">
         <v>0</v>
@@ -2906,95 +2898,95 @@
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11">
         <v>377390</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I111" s="11">
         <v>5254541</v>
@@ -3032,7 +3024,7 @@
     </row>
     <row r="115" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -3064,14 +3056,14 @@
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F117" s="9">
         <v>-274833</v>
@@ -3088,14 +3080,14 @@
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F118" s="11">
         <v>-1394788</v>
@@ -3112,14 +3104,14 @@
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F119" s="9">
         <v>0</v>
@@ -3131,19 +3123,19 @@
         <v>0</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F120" s="11">
         <v>0</v>
@@ -3160,23 +3152,23 @@
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I121" s="9">
         <v>-6208752</v>
@@ -3184,7 +3176,7 @@
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C122" s="15"/>
       <c r="D122" s="15"/>
@@ -3236,7 +3228,7 @@
     </row>
     <row r="126" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B126" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -3268,14 +3260,14 @@
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B128" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D128" s="9"/>
       <c r="E128" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F128" s="9">
         <v>394123</v>
@@ -3292,14 +3284,14 @@
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D129" s="11"/>
       <c r="E129" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F129" s="11">
         <v>748288</v>
@@ -3316,14 +3308,14 @@
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D130" s="9"/>
       <c r="E130" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F130" s="9">
         <v>0</v>
@@ -3335,19 +3327,19 @@
         <v>0</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D131" s="11"/>
       <c r="E131" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F131" s="11">
         <v>0</v>
@@ -3364,23 +3356,23 @@
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" s="8" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D132" s="9"/>
       <c r="E132" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I132" s="9">
         <v>6615365</v>
@@ -3388,7 +3380,7 @@
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C133" s="15"/>
       <c r="D133" s="15"/>
